--- a/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/datapackr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECBADD8-2D33-AE41-A6D3-AE8504BEFEDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC857F20-4017-7C41-B9F8-145677E0DDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="49">
   <si>
     <t>PEPFAR</t>
   </si>
@@ -162,9 +162,6 @@
     <t>DSD Duplicated Rollup</t>
   </si>
   <si>
-    <t>TA Duplicated Rollups</t>
-  </si>
-  <si>
     <t>Min Deduplicated TA Rollup</t>
   </si>
   <si>
@@ -206,7 +203,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \-#,##0_);_(* &quot;&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,14 +232,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -406,7 +395,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -417,122 +406,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1120,45 +1113,45 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="17" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="17" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="89" width="9" style="18" customWidth="1"/>
-    <col min="90" max="90" width="11" style="49" customWidth="1"/>
-    <col min="91" max="92" width="11" style="16" customWidth="1"/>
-    <col min="93" max="93" width="11" style="17" customWidth="1"/>
-    <col min="94" max="95" width="11" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11" style="17" customWidth="1"/>
-    <col min="97" max="98" width="11" style="16" customWidth="1"/>
-    <col min="99" max="99" width="10.6640625" style="17" customWidth="1"/>
-    <col min="100" max="101" width="10.6640625" style="16" customWidth="1"/>
-    <col min="102" max="102" width="8.83203125" style="17" customWidth="1"/>
-    <col min="103" max="104" width="8.83203125" style="16" customWidth="1"/>
-    <col min="105" max="105" width="8.83203125" style="17"/>
-    <col min="106" max="109" width="8.83203125" style="18"/>
-    <col min="110" max="110" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="8.83203125" style="18"/>
+    <col min="1" max="1" width="32.83203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="56" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="55" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="56" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" style="55" customWidth="1"/>
+    <col min="12" max="12" width="9" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="55" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="54" customWidth="1"/>
+    <col min="17" max="17" width="9" style="54" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="54" customWidth="1"/>
+    <col min="19" max="89" width="9" style="54" customWidth="1"/>
+    <col min="90" max="90" width="11" style="53" customWidth="1"/>
+    <col min="91" max="92" width="11" style="55" customWidth="1"/>
+    <col min="93" max="93" width="11" style="56" customWidth="1"/>
+    <col min="94" max="95" width="11" style="55" customWidth="1"/>
+    <col min="96" max="96" width="11" style="56" customWidth="1"/>
+    <col min="97" max="98" width="11" style="55" customWidth="1"/>
+    <col min="99" max="99" width="10.6640625" style="56" customWidth="1"/>
+    <col min="100" max="101" width="10.6640625" style="55" customWidth="1"/>
+    <col min="102" max="102" width="8.83203125" style="56" customWidth="1"/>
+    <col min="103" max="104" width="8.83203125" style="55" customWidth="1"/>
+    <col min="105" max="105" width="8.83203125" style="56"/>
+    <col min="106" max="109" width="8.83203125" style="54"/>
+    <col min="110" max="110" width="9" style="54" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="8.83203125" style="54"/>
+    <col min="112" max="16384" width="8.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:178" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1164,7 @@
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="43"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="11"/>
@@ -1252,7 +1245,7 @@
       <c r="CI1" s="14"/>
       <c r="CJ1" s="14"/>
       <c r="CK1" s="14"/>
-      <c r="CL1" s="47" t="s">
+      <c r="CL1" s="37" t="s">
         <v>32</v>
       </c>
       <c r="CM1" s="11"/>
@@ -1260,10 +1253,10 @@
       <c r="CO1" s="13"/>
       <c r="CP1" s="11"/>
       <c r="CQ1" s="12"/>
-      <c r="CR1" s="43"/>
+      <c r="CR1" s="34"/>
       <c r="CS1" s="12"/>
       <c r="CT1" s="12"/>
-      <c r="CU1" s="43"/>
+      <c r="CU1" s="34"/>
       <c r="CV1" s="12"/>
       <c r="CW1" s="12"/>
       <c r="CX1" s="13"/>
@@ -1346,7 +1339,7 @@
       <c r="FU1" s="14"/>
       <c r="FV1" s="14"/>
     </row>
-    <row r="2" spans="1:178" s="42" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:178" s="33" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1355,205 +1348,215 @@
       <c r="F2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
-      <c r="BR2" s="41"/>
-      <c r="BS2" s="41"/>
-      <c r="BT2" s="41"/>
-      <c r="BU2" s="41"/>
-      <c r="BV2" s="41"/>
-      <c r="BW2" s="41"/>
-      <c r="BX2" s="41"/>
-      <c r="BY2" s="41"/>
-      <c r="BZ2" s="41"/>
-      <c r="CA2" s="41"/>
-      <c r="CB2" s="41"/>
-      <c r="CC2" s="41"/>
-      <c r="CD2" s="41"/>
-      <c r="CE2" s="41"/>
-      <c r="CF2" s="41"/>
-      <c r="CG2" s="41"/>
-      <c r="CH2" s="41"/>
-      <c r="CI2" s="41"/>
-      <c r="CJ2" s="41"/>
-      <c r="CK2" s="41"/>
-      <c r="CL2" s="48" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="32"/>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="32"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
+      <c r="BP2" s="32"/>
+      <c r="BQ2" s="32"/>
+      <c r="BR2" s="32"/>
+      <c r="BS2" s="32"/>
+      <c r="BT2" s="32"/>
+      <c r="BU2" s="32"/>
+      <c r="BV2" s="32"/>
+      <c r="BW2" s="32"/>
+      <c r="BX2" s="32"/>
+      <c r="BY2" s="32"/>
+      <c r="BZ2" s="32"/>
+      <c r="CA2" s="32"/>
+      <c r="CB2" s="32"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
+      <c r="CE2" s="32"/>
+      <c r="CF2" s="32"/>
+      <c r="CG2" s="32"/>
+      <c r="CH2" s="32"/>
+      <c r="CI2" s="32"/>
+      <c r="CJ2" s="32"/>
+      <c r="CK2" s="32"/>
+      <c r="CL2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="CM2" s="40"/>
-      <c r="CN2" s="40"/>
+      <c r="CM2" s="31"/>
+      <c r="CN2" s="31"/>
       <c r="CO2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="CP2" s="40"/>
-      <c r="CQ2" s="40"/>
-      <c r="CR2" s="40" t="s">
+      <c r="CP2" s="31"/>
+      <c r="CQ2" s="31"/>
+      <c r="CR2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CS2" s="40"/>
-      <c r="CT2" s="40"/>
+      <c r="CS2" s="31"/>
+      <c r="CT2" s="31"/>
       <c r="CU2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="CV2" s="40"/>
-      <c r="CW2" s="40"/>
+      <c r="CV2" s="31"/>
+      <c r="CW2" s="31"/>
       <c r="CX2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="CY2" s="40"/>
-      <c r="CZ2" s="40"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
       <c r="DA2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="DB2" s="41"/>
-      <c r="DC2" s="41"/>
-      <c r="DD2" s="41"/>
-      <c r="DE2" s="41"/>
-      <c r="DF2" s="41"/>
-      <c r="DG2" s="41"/>
-      <c r="DH2" s="41"/>
-      <c r="DI2" s="41"/>
-      <c r="DJ2" s="41"/>
-      <c r="DK2" s="41"/>
-      <c r="DL2" s="41"/>
-      <c r="DM2" s="41"/>
-      <c r="DN2" s="41"/>
-      <c r="DO2" s="41"/>
-      <c r="DP2" s="41"/>
-      <c r="DQ2" s="41"/>
-      <c r="DR2" s="41"/>
-      <c r="DS2" s="41"/>
-      <c r="DT2" s="41"/>
-      <c r="DU2" s="41"/>
-      <c r="DV2" s="41"/>
-      <c r="DW2" s="41"/>
-      <c r="DX2" s="41"/>
-      <c r="DY2" s="41"/>
-      <c r="DZ2" s="41"/>
-      <c r="EA2" s="41"/>
-      <c r="EB2" s="41"/>
-      <c r="EC2" s="41"/>
-      <c r="ED2" s="41"/>
-      <c r="EE2" s="41"/>
-      <c r="EF2" s="41"/>
-      <c r="EG2" s="41"/>
-      <c r="EH2" s="41"/>
-      <c r="EI2" s="41"/>
-      <c r="EJ2" s="41"/>
-      <c r="EK2" s="41"/>
-      <c r="EL2" s="41"/>
-      <c r="EM2" s="41"/>
-      <c r="EN2" s="41"/>
-      <c r="EO2" s="41"/>
-      <c r="EP2" s="41"/>
-      <c r="EQ2" s="41"/>
-      <c r="ER2" s="41"/>
-      <c r="ES2" s="41"/>
-      <c r="ET2" s="41"/>
-      <c r="EU2" s="41"/>
-      <c r="EV2" s="41"/>
-      <c r="EW2" s="41"/>
-      <c r="EX2" s="41"/>
-      <c r="EY2" s="41"/>
-      <c r="EZ2" s="41"/>
-      <c r="FA2" s="41"/>
-      <c r="FB2" s="41"/>
-      <c r="FC2" s="41"/>
-      <c r="FD2" s="41"/>
-      <c r="FE2" s="41"/>
-      <c r="FF2" s="41"/>
-      <c r="FG2" s="41"/>
-      <c r="FH2" s="41"/>
-      <c r="FI2" s="41"/>
-      <c r="FJ2" s="41"/>
-      <c r="FK2" s="41"/>
-      <c r="FL2" s="41"/>
-      <c r="FM2" s="41"/>
-      <c r="FN2" s="41"/>
-      <c r="FO2" s="41"/>
-      <c r="FP2" s="41"/>
-      <c r="FQ2" s="41"/>
-      <c r="FR2" s="41"/>
-      <c r="FS2" s="41"/>
-      <c r="FT2" s="41"/>
-      <c r="FU2" s="41"/>
-      <c r="FV2" s="41"/>
+      <c r="DB2" s="32"/>
+      <c r="DC2" s="32"/>
+      <c r="DD2" s="32"/>
+      <c r="DE2" s="32"/>
+      <c r="DF2" s="32"/>
+      <c r="DG2" s="32"/>
+      <c r="DH2" s="32"/>
+      <c r="DI2" s="32"/>
+      <c r="DJ2" s="32"/>
+      <c r="DK2" s="32"/>
+      <c r="DL2" s="32"/>
+      <c r="DM2" s="32"/>
+      <c r="DN2" s="32"/>
+      <c r="DO2" s="32"/>
+      <c r="DP2" s="32"/>
+      <c r="DQ2" s="32"/>
+      <c r="DR2" s="32"/>
+      <c r="DS2" s="32"/>
+      <c r="DT2" s="32"/>
+      <c r="DU2" s="32"/>
+      <c r="DV2" s="32"/>
+      <c r="DW2" s="32"/>
+      <c r="DX2" s="32"/>
+      <c r="DY2" s="32"/>
+      <c r="DZ2" s="32"/>
+      <c r="EA2" s="32"/>
+      <c r="EB2" s="32"/>
+      <c r="EC2" s="32"/>
+      <c r="ED2" s="32"/>
+      <c r="EE2" s="32"/>
+      <c r="EF2" s="32"/>
+      <c r="EG2" s="32"/>
+      <c r="EH2" s="32"/>
+      <c r="EI2" s="32"/>
+      <c r="EJ2" s="32"/>
+      <c r="EK2" s="32"/>
+      <c r="EL2" s="32"/>
+      <c r="EM2" s="32"/>
+      <c r="EN2" s="32"/>
+      <c r="EO2" s="32"/>
+      <c r="EP2" s="32"/>
+      <c r="EQ2" s="32"/>
+      <c r="ER2" s="32"/>
+      <c r="ES2" s="32"/>
+      <c r="ET2" s="32"/>
+      <c r="EU2" s="32"/>
+      <c r="EV2" s="32"/>
+      <c r="EW2" s="32"/>
+      <c r="EX2" s="32"/>
+      <c r="EY2" s="32"/>
+      <c r="EZ2" s="32"/>
+      <c r="FA2" s="32"/>
+      <c r="FB2" s="32"/>
+      <c r="FC2" s="32"/>
+      <c r="FD2" s="32"/>
+      <c r="FE2" s="32"/>
+      <c r="FF2" s="32"/>
+      <c r="FG2" s="32"/>
+      <c r="FH2" s="32"/>
+      <c r="FI2" s="32"/>
+      <c r="FJ2" s="32"/>
+      <c r="FK2" s="32"/>
+      <c r="FL2" s="32"/>
+      <c r="FM2" s="32"/>
+      <c r="FN2" s="32"/>
+      <c r="FO2" s="32"/>
+      <c r="FP2" s="32"/>
+      <c r="FQ2" s="32"/>
+      <c r="FR2" s="32"/>
+      <c r="FS2" s="32"/>
+      <c r="FT2" s="32"/>
+      <c r="FU2" s="32"/>
+      <c r="FV2" s="32"/>
     </row>
-    <row r="3" spans="1:178" ht="118" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:178" customFormat="1" ht="118" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
@@ -1628,6 +1631,28 @@
       <c r="CI3" s="16"/>
       <c r="CJ3" s="16"/>
       <c r="CK3" s="16"/>
+      <c r="CL3" s="39"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="17"/>
+      <c r="CP3" s="16"/>
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="17"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="16"/>
+      <c r="CU3" s="17"/>
+      <c r="CV3" s="16"/>
+      <c r="CW3" s="16"/>
+      <c r="CX3" s="17"/>
+      <c r="CY3" s="16"/>
+      <c r="CZ3" s="16"/>
+      <c r="DA3" s="17"/>
+      <c r="DB3" s="18"/>
+      <c r="DC3" s="18"/>
+      <c r="DD3" s="18"/>
+      <c r="DE3" s="18"/>
+      <c r="DF3" s="18"/>
+      <c r="DG3" s="18"/>
       <c r="DH3" s="18"/>
       <c r="DI3" s="18"/>
       <c r="DJ3" s="18"/>
@@ -1696,7 +1721,7 @@
       <c r="FU3" s="18"/>
       <c r="FV3" s="18"/>
     </row>
-    <row r="4" spans="1:178" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:178" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1716,6 +1741,81 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
+      <c r="BT4" s="18"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="18"/>
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
+      <c r="BY4" s="18"/>
+      <c r="BZ4" s="18"/>
+      <c r="CA4" s="18"/>
+      <c r="CB4" s="18"/>
+      <c r="CC4" s="18"/>
+      <c r="CD4" s="18"/>
+      <c r="CE4" s="18"/>
+      <c r="CF4" s="18"/>
+      <c r="CG4" s="18"/>
+      <c r="CH4" s="18"/>
+      <c r="CI4" s="18"/>
+      <c r="CJ4" s="18"/>
+      <c r="CK4" s="18"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="17"/>
+      <c r="CP4" s="16"/>
       <c r="CQ4" s="20"/>
       <c r="CR4" s="19"/>
       <c r="CS4" s="20"/>
@@ -1731,6 +1831,8 @@
       <c r="DC4" s="21"/>
       <c r="DD4" s="21"/>
       <c r="DE4" s="21"/>
+      <c r="DF4" s="18"/>
+      <c r="DG4" s="18"/>
       <c r="DH4" s="18"/>
       <c r="DI4" s="18"/>
       <c r="DJ4" s="18"/>
@@ -1799,7 +1901,7 @@
       <c r="FU4" s="18"/>
       <c r="FV4" s="18"/>
     </row>
-    <row r="5" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1834,16 +1936,16 @@
         <v>7</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -1919,7 +2021,7 @@
       <c r="CI5" s="21"/>
       <c r="CJ5" s="21"/>
       <c r="CK5" s="21"/>
-      <c r="CL5" s="50" t="s">
+      <c r="CL5" s="40" t="s">
         <v>7</v>
       </c>
       <c r="CM5" s="20" t="s">
@@ -1956,16 +2058,16 @@
         <v>7</v>
       </c>
       <c r="CX5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CY5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CZ5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DA5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DB5" s="21"/>
       <c r="DC5" s="21"/>
@@ -2041,7 +2143,7 @@
       <c r="FU5" s="21"/>
       <c r="FV5" s="21"/>
     </row>
-    <row r="6" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2058,34 +2160,34 @@
         <v>8</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -2161,53 +2263,53 @@
       <c r="CI6" s="21"/>
       <c r="CJ6" s="21"/>
       <c r="CK6" s="21"/>
-      <c r="CL6" s="50" t="s">
-        <v>47</v>
+      <c r="CL6" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="CM6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CN6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CO6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CP6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CQ6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CR6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CS6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CT6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CU6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CV6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CW6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CX6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CY6" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CZ6" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="DA6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="DB6" s="21"/>
       <c r="DC6" s="21"/>
@@ -2283,7 +2385,7 @@
       <c r="FU6" s="21"/>
       <c r="FV6" s="21"/>
     </row>
-    <row r="7" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2300,34 +2402,34 @@
         <v>9</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -2403,53 +2505,53 @@
       <c r="CI7" s="21"/>
       <c r="CJ7" s="21"/>
       <c r="CK7" s="21"/>
-      <c r="CL7" s="50" t="s">
-        <v>46</v>
+      <c r="CL7" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="CM7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CN7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CO7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CP7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CQ7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CR7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CS7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CT7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CU7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CV7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CW7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CX7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CY7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CZ7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DA7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DB7" s="21"/>
       <c r="DC7" s="21"/>
@@ -2525,7 +2627,7 @@
       <c r="FU7" s="21"/>
       <c r="FV7" s="21"/>
     </row>
-    <row r="8" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -2645,7 +2747,7 @@
       <c r="CI8" s="21"/>
       <c r="CJ8" s="21"/>
       <c r="CK8" s="21"/>
-      <c r="CL8" s="50" t="s">
+      <c r="CL8" s="40" t="s">
         <v>35</v>
       </c>
       <c r="CM8" s="20" t="s">
@@ -2767,7 +2869,7 @@
       <c r="FU8" s="21"/>
       <c r="FV8" s="21"/>
     </row>
-    <row r="9" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -2887,7 +2989,7 @@
       <c r="CI9" s="21"/>
       <c r="CJ9" s="21"/>
       <c r="CK9" s="21"/>
-      <c r="CL9" s="50" t="s">
+      <c r="CL9" s="40" t="s">
         <v>35</v>
       </c>
       <c r="CM9" s="20" t="s">
@@ -3009,7 +3111,7 @@
       <c r="FU9" s="21"/>
       <c r="FV9" s="21"/>
     </row>
-    <row r="10" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -3129,7 +3231,7 @@
       <c r="CI10" s="21"/>
       <c r="CJ10" s="21"/>
       <c r="CK10" s="21"/>
-      <c r="CL10" s="50" t="s">
+      <c r="CL10" s="40" t="s">
         <v>35</v>
       </c>
       <c r="CM10" s="20" t="s">
@@ -3251,7 +3353,7 @@
       <c r="FU10" s="21"/>
       <c r="FV10" s="21"/>
     </row>
-    <row r="11" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -3371,7 +3473,7 @@
       <c r="CI11" s="21"/>
       <c r="CJ11" s="21"/>
       <c r="CK11" s="21"/>
-      <c r="CL11" s="50" t="s">
+      <c r="CL11" s="40" t="s">
         <v>35</v>
       </c>
       <c r="CM11" s="20" t="s">
@@ -3493,7 +3595,7 @@
       <c r="FU11" s="21"/>
       <c r="FV11" s="21"/>
     </row>
-    <row r="12" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3613,7 +3715,7 @@
       <c r="CI12" s="21"/>
       <c r="CJ12" s="21"/>
       <c r="CK12" s="21"/>
-      <c r="CL12" s="50" t="s">
+      <c r="CL12" s="40" t="s">
         <v>35</v>
       </c>
       <c r="CM12" s="20" t="s">
@@ -3735,7 +3837,7 @@
       <c r="FU12" s="21"/>
       <c r="FV12" s="21"/>
     </row>
-    <row r="13" spans="1:178" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -3778,10 +3880,10 @@
       <c r="N13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="CL13" s="50" t="s">
+      <c r="O13" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL13" s="40" t="s">
         <v>35</v>
       </c>
       <c r="CM13" s="20" t="s">
@@ -3826,11 +3928,11 @@
       <c r="CZ13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="DA13" s="55" t="s">
+      <c r="DA13" s="45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:178" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:178" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -3846,7 +3948,7 @@
       <c r="E14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="35" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -3855,14 +3957,14 @@
       <c r="H14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="29" t="s">
         <v>37</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>15</v>
@@ -3950,43 +4052,43 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="51" t="s">
+      <c r="CL14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="CM14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CM14" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="CN14" s="45" t="s">
+      <c r="CN14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="CO14" s="44" t="s">
+      <c r="CO14" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="CP14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="CP14" s="38" t="s">
+      <c r="CQ14" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR14" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="CS14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="CW14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="CQ14" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="CR14" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="CS14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="CT14" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="CU14" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="CW14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX14" s="39" t="s">
+      <c r="CX14" s="30" t="s">
         <v>15</v>
       </c>
       <c r="CY14" s="25" t="s">
@@ -3995,7 +4097,7 @@
       <c r="CZ14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="DA14" s="37" t="s">
+      <c r="DA14" s="28" t="s">
         <v>21</v>
       </c>
       <c r="DB14" s="26"/>
@@ -4072,244 +4174,367 @@
       <c r="FU14" s="27"/>
       <c r="FV14" s="27"/>
     </row>
-    <row r="15" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="F15" s="46"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="32"/>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="32"/>
-      <c r="BL15" s="32"/>
-      <c r="BM15" s="32"/>
-      <c r="BN15" s="32"/>
-      <c r="BO15" s="32"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="32"/>
-      <c r="BR15" s="32"/>
-      <c r="BS15" s="32"/>
-      <c r="BT15" s="32"/>
-      <c r="BU15" s="32"/>
-      <c r="BV15" s="32"/>
-      <c r="BW15" s="32"/>
-      <c r="BX15" s="32"/>
-      <c r="BY15" s="32"/>
-      <c r="BZ15" s="32"/>
-      <c r="CA15" s="32"/>
-      <c r="CB15" s="32"/>
-      <c r="CC15" s="32"/>
-      <c r="CD15" s="32"/>
-      <c r="CE15" s="32"/>
-      <c r="CF15" s="32"/>
-      <c r="CG15" s="32"/>
-      <c r="CH15" s="32"/>
-      <c r="CI15" s="32"/>
-      <c r="CJ15" s="32"/>
-      <c r="CK15" s="32"/>
-      <c r="CL15" s="49">
+    <row r="15" spans="1:178" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="52"/>
+      <c r="AV15" s="52"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="52"/>
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="52"/>
+      <c r="BF15" s="52"/>
+      <c r="BG15" s="52"/>
+      <c r="BH15" s="52"/>
+      <c r="BI15" s="52"/>
+      <c r="BJ15" s="52"/>
+      <c r="BK15" s="52"/>
+      <c r="BL15" s="52"/>
+      <c r="BM15" s="52"/>
+      <c r="BN15" s="52"/>
+      <c r="BO15" s="52"/>
+      <c r="BP15" s="52"/>
+      <c r="BQ15" s="52"/>
+      <c r="BR15" s="52"/>
+      <c r="BS15" s="52"/>
+      <c r="BT15" s="52"/>
+      <c r="BU15" s="52"/>
+      <c r="BV15" s="52"/>
+      <c r="BW15" s="52"/>
+      <c r="BX15" s="52"/>
+      <c r="BY15" s="52"/>
+      <c r="BZ15" s="52"/>
+      <c r="CA15" s="52"/>
+      <c r="CB15" s="52"/>
+      <c r="CC15" s="52"/>
+      <c r="CD15" s="52"/>
+      <c r="CE15" s="52"/>
+      <c r="CF15" s="52"/>
+      <c r="CG15" s="52"/>
+      <c r="CH15" s="52"/>
+      <c r="CI15" s="52"/>
+      <c r="CJ15" s="52"/>
+      <c r="CK15" s="52"/>
+      <c r="CL15" s="53">
         <f>SUM($CQ15,$CT15)</f>
         <v>0</v>
       </c>
-      <c r="CM15" s="18">
+      <c r="CM15" s="54">
         <f>MAX($CQ15,$CT15)</f>
         <v>0</v>
       </c>
-      <c r="CO15" s="17">
+      <c r="CN15" s="55"/>
+      <c r="CO15" s="56">
         <f>$CV15</f>
         <v>0</v>
       </c>
-      <c r="CP15" s="18">
+      <c r="CP15" s="54">
         <f>_xlfn.MAXIFS($DA15:$FV15,$DA$14:$FV$14,"*DSD*")</f>
         <v>0</v>
       </c>
-      <c r="CR15" s="17">
+      <c r="CQ15" s="55"/>
+      <c r="CR15" s="56">
         <f>$CW15</f>
         <v>0</v>
       </c>
-      <c r="CS15" s="18">
+      <c r="CS15" s="54">
         <f>_xlfn.MAXIFS($DA15:$FV15,$DA$14:$FV$14,"*TA*")</f>
         <v>0</v>
       </c>
-      <c r="CU15" s="17">
+      <c r="CT15" s="55"/>
+      <c r="CU15" s="56">
         <f>SUM($CV15,$CW15)</f>
         <v>0</v>
       </c>
-      <c r="CV15" s="18">
+      <c r="CV15" s="54">
         <f>SUMIFS($DA15:$FV15,$DA$14:$FV$14,"*DSD*")</f>
         <v>0</v>
       </c>
-      <c r="CW15" s="18">
+      <c r="CW15" s="54">
         <f>SUMIFS($DA15:$FV15,$DA$14:$FV$14,"*TA*")</f>
         <v>0</v>
       </c>
-      <c r="CX15" s="17">
+      <c r="CX15" s="56">
         <f t="shared" ref="CX15" si="0">$CQ15-$CV15</f>
         <v>0</v>
       </c>
-      <c r="CY15" s="18">
+      <c r="CY15" s="54">
         <f>$CT15-$CW15</f>
         <v>0</v>
       </c>
-      <c r="CZ15" s="18">
+      <c r="CZ15" s="54">
         <f>$CN15-$CL15</f>
         <v>0</v>
       </c>
-      <c r="DF15" s="32"/>
-      <c r="DH15" s="18"/>
-      <c r="DI15" s="18"/>
+      <c r="DA15" s="56"/>
+      <c r="DB15" s="54"/>
+      <c r="DC15" s="54"/>
+      <c r="DD15" s="54"/>
+      <c r="DE15" s="54"/>
+      <c r="DF15" s="52"/>
+      <c r="DG15" s="54"/>
+      <c r="DH15" s="54"/>
+      <c r="DI15" s="54"/>
     </row>
-    <row r="16" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="L16" s="33"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="DA16" s="33"/>
-      <c r="DB16" s="36"/>
-      <c r="DC16" s="36"/>
-      <c r="DD16" s="36"/>
-      <c r="DE16" s="36"/>
+    <row r="16" spans="1:178" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="56"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="54"/>
+      <c r="BB16" s="54"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="54"/>
+      <c r="BG16" s="54"/>
+      <c r="BH16" s="54"/>
+      <c r="BI16" s="54"/>
+      <c r="BJ16" s="54"/>
+      <c r="BK16" s="54"/>
+      <c r="BL16" s="54"/>
+      <c r="BM16" s="54"/>
+      <c r="BN16" s="54"/>
+      <c r="BO16" s="54"/>
+      <c r="BP16" s="54"/>
+      <c r="BQ16" s="54"/>
+      <c r="BR16" s="54"/>
+      <c r="BS16" s="54"/>
+      <c r="BT16" s="54"/>
+      <c r="BU16" s="54"/>
+      <c r="BV16" s="54"/>
+      <c r="BW16" s="54"/>
+      <c r="BX16" s="54"/>
+      <c r="BY16" s="54"/>
+      <c r="BZ16" s="54"/>
+      <c r="CA16" s="54"/>
+      <c r="CB16" s="54"/>
+      <c r="CC16" s="54"/>
+      <c r="CD16" s="54"/>
+      <c r="CE16" s="54"/>
+      <c r="CF16" s="54"/>
+      <c r="CG16" s="54"/>
+      <c r="CH16" s="54"/>
+      <c r="CI16" s="54"/>
+      <c r="CJ16" s="54"/>
+      <c r="CK16" s="54"/>
+      <c r="CL16" s="53"/>
+      <c r="CM16" s="55"/>
+      <c r="CN16" s="55"/>
+      <c r="CO16" s="56"/>
+      <c r="CP16" s="55"/>
+      <c r="CQ16" s="55"/>
+      <c r="CR16" s="56"/>
+      <c r="CS16" s="55"/>
+      <c r="CT16" s="55"/>
+      <c r="CU16" s="56"/>
+      <c r="CV16" s="55"/>
+      <c r="CW16" s="55"/>
+      <c r="CX16" s="56"/>
+      <c r="CY16" s="55"/>
+      <c r="CZ16" s="55"/>
+      <c r="DA16" s="57"/>
+      <c r="DB16" s="59"/>
+      <c r="DC16" s="59"/>
+      <c r="DD16" s="59"/>
+      <c r="DE16" s="59"/>
+      <c r="DF16" s="54"/>
+      <c r="DG16" s="54"/>
     </row>
-    <row r="17" spans="12:111" x14ac:dyDescent="0.2">
-      <c r="L17" s="33"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="36"/>
-      <c r="AZ17" s="36"/>
-      <c r="BA17" s="36"/>
-      <c r="BB17" s="36"/>
-      <c r="BC17" s="36"/>
-      <c r="BD17" s="36"/>
-      <c r="BE17" s="36"/>
-      <c r="BF17" s="36"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="36"/>
-      <c r="BK17" s="36"/>
-      <c r="BL17" s="36"/>
-      <c r="BM17" s="36"/>
-      <c r="BN17" s="36"/>
-      <c r="BO17" s="36"/>
-      <c r="BP17" s="36"/>
-      <c r="BQ17" s="36"/>
-      <c r="BR17" s="36"/>
-      <c r="BS17" s="36"/>
-      <c r="BT17" s="36"/>
-      <c r="BU17" s="36"/>
-      <c r="BV17" s="36"/>
-      <c r="BW17" s="36"/>
-      <c r="BX17" s="36"/>
-      <c r="BY17" s="36"/>
-      <c r="BZ17" s="36"/>
-      <c r="CA17" s="36"/>
-      <c r="CB17" s="36"/>
-      <c r="CC17" s="36"/>
-      <c r="CD17" s="36"/>
-      <c r="CE17" s="36"/>
-      <c r="CF17" s="36"/>
-      <c r="CG17" s="36"/>
-      <c r="CH17" s="36"/>
-      <c r="CI17" s="36"/>
-      <c r="CJ17" s="36"/>
-      <c r="CK17" s="36"/>
-      <c r="DA17" s="33"/>
-      <c r="DB17" s="34"/>
-      <c r="DC17" s="34"/>
-      <c r="DD17" s="34"/>
-      <c r="DE17" s="34"/>
-      <c r="DF17" s="36"/>
-      <c r="DG17" s="36"/>
+    <row r="17" spans="6:111" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="56"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="59"/>
+      <c r="AV17" s="59"/>
+      <c r="AW17" s="59"/>
+      <c r="AX17" s="59"/>
+      <c r="AY17" s="59"/>
+      <c r="AZ17" s="59"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="59"/>
+      <c r="BC17" s="59"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="59"/>
+      <c r="BF17" s="59"/>
+      <c r="BG17" s="59"/>
+      <c r="BH17" s="59"/>
+      <c r="BI17" s="59"/>
+      <c r="BJ17" s="59"/>
+      <c r="BK17" s="59"/>
+      <c r="BL17" s="59"/>
+      <c r="BM17" s="59"/>
+      <c r="BN17" s="59"/>
+      <c r="BO17" s="59"/>
+      <c r="BP17" s="59"/>
+      <c r="BQ17" s="59"/>
+      <c r="BR17" s="59"/>
+      <c r="BS17" s="59"/>
+      <c r="BT17" s="59"/>
+      <c r="BU17" s="59"/>
+      <c r="BV17" s="59"/>
+      <c r="BW17" s="59"/>
+      <c r="BX17" s="59"/>
+      <c r="BY17" s="59"/>
+      <c r="BZ17" s="59"/>
+      <c r="CA17" s="59"/>
+      <c r="CB17" s="59"/>
+      <c r="CC17" s="59"/>
+      <c r="CD17" s="59"/>
+      <c r="CE17" s="59"/>
+      <c r="CF17" s="59"/>
+      <c r="CG17" s="59"/>
+      <c r="CH17" s="59"/>
+      <c r="CI17" s="59"/>
+      <c r="CJ17" s="59"/>
+      <c r="CK17" s="59"/>
+      <c r="CL17" s="53"/>
+      <c r="CM17" s="55"/>
+      <c r="CN17" s="55"/>
+      <c r="CO17" s="56"/>
+      <c r="CP17" s="55"/>
+      <c r="CQ17" s="55"/>
+      <c r="CR17" s="56"/>
+      <c r="CS17" s="55"/>
+      <c r="CT17" s="55"/>
+      <c r="CU17" s="56"/>
+      <c r="CV17" s="55"/>
+      <c r="CW17" s="55"/>
+      <c r="CX17" s="56"/>
+      <c r="CY17" s="55"/>
+      <c r="CZ17" s="55"/>
+      <c r="DA17" s="57"/>
+      <c r="DB17" s="59"/>
+      <c r="DC17" s="59"/>
+      <c r="DD17" s="59"/>
+      <c r="DE17" s="59"/>
+      <c r="DF17" s="59"/>
+      <c r="DG17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/datapackr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC857F20-4017-7C41-B9F8-145677E0DDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D012557-F94A-E547-819C-6BE2FFE11F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -500,12 +500,6 @@
     <xf numFmtId="164" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -526,13 +520,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="68">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -555,6 +555,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -565,6 +575,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -575,6 +595,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -605,6 +665,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -615,6 +685,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -665,6 +745,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -675,6 +765,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -715,6 +845,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -725,11 +875,331 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1118,37 +1588,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="56" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="56" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" style="55" customWidth="1"/>
-    <col min="12" max="12" width="9" style="56" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="55" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="54" customWidth="1"/>
-    <col min="17" max="17" width="9" style="54" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="54" customWidth="1"/>
-    <col min="19" max="89" width="9" style="54" customWidth="1"/>
-    <col min="90" max="90" width="11" style="53" customWidth="1"/>
-    <col min="91" max="92" width="11" style="55" customWidth="1"/>
-    <col min="93" max="93" width="11" style="56" customWidth="1"/>
-    <col min="94" max="95" width="11" style="55" customWidth="1"/>
-    <col min="96" max="96" width="11" style="56" customWidth="1"/>
-    <col min="97" max="98" width="11" style="55" customWidth="1"/>
-    <col min="99" max="99" width="10.6640625" style="56" customWidth="1"/>
-    <col min="100" max="101" width="10.6640625" style="55" customWidth="1"/>
-    <col min="102" max="102" width="8.83203125" style="56" customWidth="1"/>
-    <col min="103" max="104" width="8.83203125" style="55" customWidth="1"/>
-    <col min="105" max="105" width="8.83203125" style="56"/>
-    <col min="106" max="109" width="8.83203125" style="54"/>
-    <col min="110" max="110" width="9" style="54" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="8.83203125" style="54"/>
-    <col min="112" max="16384" width="8.83203125" style="46"/>
+    <col min="1" max="1" width="32.83203125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="44" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="54" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="54" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="9" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="52" customWidth="1"/>
+    <col min="17" max="17" width="9" style="52" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="52" customWidth="1"/>
+    <col min="19" max="89" width="9" style="52" customWidth="1"/>
+    <col min="90" max="90" width="11" style="51" customWidth="1"/>
+    <col min="91" max="92" width="11" style="53" customWidth="1"/>
+    <col min="93" max="93" width="11" style="54" customWidth="1"/>
+    <col min="94" max="95" width="11" style="53" customWidth="1"/>
+    <col min="96" max="96" width="11" style="54" customWidth="1"/>
+    <col min="97" max="98" width="11" style="53" customWidth="1"/>
+    <col min="99" max="99" width="10.6640625" style="54" customWidth="1"/>
+    <col min="100" max="101" width="10.6640625" style="53" customWidth="1"/>
+    <col min="102" max="102" width="8.83203125" style="54" customWidth="1"/>
+    <col min="103" max="104" width="8.83203125" style="53" customWidth="1"/>
+    <col min="105" max="105" width="8.83203125" style="54"/>
+    <col min="106" max="109" width="8.83203125" style="52"/>
+    <col min="110" max="110" width="9" style="52" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="8.83203125" style="52"/>
+    <col min="112" max="16384" width="8.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -1447,7 +1917,7 @@
       </c>
       <c r="CP2" s="31"/>
       <c r="CQ2" s="31"/>
-      <c r="CR2" s="31" t="s">
+      <c r="CR2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="CS2" s="31"/>
@@ -1540,10 +2010,10 @@
       <c r="FV2" s="32"/>
     </row>
     <row r="3" spans="1:178" customFormat="1" ht="118" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1901,7 +2371,7 @@
       <c r="FU4" s="18"/>
       <c r="FV4" s="18"/>
     </row>
-    <row r="5" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2613,7 @@
       <c r="FU5" s="21"/>
       <c r="FV5" s="21"/>
     </row>
-    <row r="6" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2855,7 @@
       <c r="FU6" s="21"/>
       <c r="FV6" s="21"/>
     </row>
-    <row r="7" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2627,7 +3097,7 @@
       <c r="FU7" s="21"/>
       <c r="FV7" s="21"/>
     </row>
-    <row r="8" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -2869,7 +3339,7 @@
       <c r="FU8" s="21"/>
       <c r="FV8" s="21"/>
     </row>
-    <row r="9" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3111,7 +3581,7 @@
       <c r="FU9" s="21"/>
       <c r="FV9" s="21"/>
     </row>
-    <row r="10" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -3353,7 +3823,7 @@
       <c r="FU10" s="21"/>
       <c r="FV10" s="21"/>
     </row>
-    <row r="11" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -3595,7 +4065,7 @@
       <c r="FU11" s="21"/>
       <c r="FV11" s="21"/>
     </row>
-    <row r="12" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3837,7 +4307,7 @@
       <c r="FU12" s="21"/>
       <c r="FV12" s="21"/>
     </row>
-    <row r="13" spans="1:178" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -3880,7 +4350,7 @@
       <c r="N13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="43" t="s">
         <v>35</v>
       </c>
       <c r="CL13" s="40" t="s">
@@ -3928,7 +4398,7 @@
       <c r="CZ13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="DA13" s="45" t="s">
+      <c r="DA13" s="43" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4174,434 +4644,324 @@
       <c r="FU14" s="27"/>
       <c r="FV14" s="27"/>
     </row>
-    <row r="15" spans="1:178" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="52"/>
-      <c r="BN15" s="52"/>
-      <c r="BO15" s="52"/>
-      <c r="BP15" s="52"/>
-      <c r="BQ15" s="52"/>
-      <c r="BR15" s="52"/>
-      <c r="BS15" s="52"/>
-      <c r="BT15" s="52"/>
-      <c r="BU15" s="52"/>
-      <c r="BV15" s="52"/>
-      <c r="BW15" s="52"/>
-      <c r="BX15" s="52"/>
-      <c r="BY15" s="52"/>
-      <c r="BZ15" s="52"/>
-      <c r="CA15" s="52"/>
-      <c r="CB15" s="52"/>
-      <c r="CC15" s="52"/>
-      <c r="CD15" s="52"/>
-      <c r="CE15" s="52"/>
-      <c r="CF15" s="52"/>
-      <c r="CG15" s="52"/>
-      <c r="CH15" s="52"/>
-      <c r="CI15" s="52"/>
-      <c r="CJ15" s="52"/>
-      <c r="CK15" s="52"/>
-      <c r="CL15" s="53">
+    <row r="15" spans="1:178" x14ac:dyDescent="0.2">
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="50"/>
+      <c r="BK15" s="50"/>
+      <c r="BL15" s="50"/>
+      <c r="BM15" s="50"/>
+      <c r="BN15" s="50"/>
+      <c r="BO15" s="50"/>
+      <c r="BP15" s="50"/>
+      <c r="BQ15" s="50"/>
+      <c r="BR15" s="50"/>
+      <c r="BS15" s="50"/>
+      <c r="BT15" s="50"/>
+      <c r="BU15" s="50"/>
+      <c r="BV15" s="50"/>
+      <c r="BW15" s="50"/>
+      <c r="BX15" s="50"/>
+      <c r="BY15" s="50"/>
+      <c r="BZ15" s="50"/>
+      <c r="CA15" s="50"/>
+      <c r="CB15" s="50"/>
+      <c r="CC15" s="50"/>
+      <c r="CD15" s="50"/>
+      <c r="CE15" s="50"/>
+      <c r="CF15" s="50"/>
+      <c r="CG15" s="50"/>
+      <c r="CH15" s="50"/>
+      <c r="CI15" s="50"/>
+      <c r="CJ15" s="50"/>
+      <c r="CK15" s="50"/>
+      <c r="CL15" s="51">
         <f>SUM($CQ15,$CT15)</f>
         <v>0</v>
       </c>
-      <c r="CM15" s="54">
+      <c r="CM15" s="52">
         <f>MAX($CQ15,$CT15)</f>
         <v>0</v>
       </c>
-      <c r="CN15" s="55"/>
-      <c r="CO15" s="56">
+      <c r="CO15" s="54">
         <f>$CV15</f>
         <v>0</v>
       </c>
-      <c r="CP15" s="54">
+      <c r="CP15" s="52">
         <f>_xlfn.MAXIFS($DA15:$FV15,$DA$14:$FV$14,"*DSD*")</f>
         <v>0</v>
       </c>
-      <c r="CQ15" s="55"/>
-      <c r="CR15" s="56">
+      <c r="CR15" s="54">
         <f>$CW15</f>
         <v>0</v>
       </c>
-      <c r="CS15" s="54">
+      <c r="CS15" s="52">
         <f>_xlfn.MAXIFS($DA15:$FV15,$DA$14:$FV$14,"*TA*")</f>
         <v>0</v>
       </c>
-      <c r="CT15" s="55"/>
-      <c r="CU15" s="56">
+      <c r="CU15" s="54">
         <f>SUM($CV15,$CW15)</f>
         <v>0</v>
       </c>
-      <c r="CV15" s="54">
+      <c r="CV15" s="52">
         <f>SUMIFS($DA15:$FV15,$DA$14:$FV$14,"*DSD*")</f>
         <v>0</v>
       </c>
-      <c r="CW15" s="54">
+      <c r="CW15" s="52">
         <f>SUMIFS($DA15:$FV15,$DA$14:$FV$14,"*TA*")</f>
         <v>0</v>
       </c>
-      <c r="CX15" s="56">
+      <c r="CX15" s="54">
         <f t="shared" ref="CX15" si="0">$CQ15-$CV15</f>
         <v>0</v>
       </c>
-      <c r="CY15" s="54">
+      <c r="CY15" s="52">
         <f>$CT15-$CW15</f>
         <v>0</v>
       </c>
-      <c r="CZ15" s="54">
+      <c r="CZ15" s="52">
         <f>$CN15-$CL15</f>
         <v>0</v>
       </c>
-      <c r="DA15" s="56"/>
-      <c r="DB15" s="54"/>
-      <c r="DC15" s="54"/>
-      <c r="DD15" s="54"/>
-      <c r="DE15" s="54"/>
-      <c r="DF15" s="52"/>
-      <c r="DG15" s="54"/>
-      <c r="DH15" s="54"/>
-      <c r="DI15" s="54"/>
+      <c r="DF15" s="50"/>
+      <c r="DH15" s="52"/>
+      <c r="DI15" s="52"/>
     </row>
-    <row r="16" spans="1:178" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="56"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="54"/>
-      <c r="BB16" s="54"/>
-      <c r="BC16" s="54"/>
-      <c r="BD16" s="54"/>
-      <c r="BE16" s="54"/>
-      <c r="BF16" s="54"/>
-      <c r="BG16" s="54"/>
-      <c r="BH16" s="54"/>
-      <c r="BI16" s="54"/>
-      <c r="BJ16" s="54"/>
-      <c r="BK16" s="54"/>
-      <c r="BL16" s="54"/>
-      <c r="BM16" s="54"/>
-      <c r="BN16" s="54"/>
-      <c r="BO16" s="54"/>
-      <c r="BP16" s="54"/>
-      <c r="BQ16" s="54"/>
-      <c r="BR16" s="54"/>
-      <c r="BS16" s="54"/>
-      <c r="BT16" s="54"/>
-      <c r="BU16" s="54"/>
-      <c r="BV16" s="54"/>
-      <c r="BW16" s="54"/>
-      <c r="BX16" s="54"/>
-      <c r="BY16" s="54"/>
-      <c r="BZ16" s="54"/>
-      <c r="CA16" s="54"/>
-      <c r="CB16" s="54"/>
-      <c r="CC16" s="54"/>
-      <c r="CD16" s="54"/>
-      <c r="CE16" s="54"/>
-      <c r="CF16" s="54"/>
-      <c r="CG16" s="54"/>
-      <c r="CH16" s="54"/>
-      <c r="CI16" s="54"/>
-      <c r="CJ16" s="54"/>
-      <c r="CK16" s="54"/>
-      <c r="CL16" s="53"/>
-      <c r="CM16" s="55"/>
-      <c r="CN16" s="55"/>
-      <c r="CO16" s="56"/>
-      <c r="CP16" s="55"/>
-      <c r="CQ16" s="55"/>
-      <c r="CR16" s="56"/>
-      <c r="CS16" s="55"/>
-      <c r="CT16" s="55"/>
-      <c r="CU16" s="56"/>
-      <c r="CV16" s="55"/>
-      <c r="CW16" s="55"/>
-      <c r="CX16" s="56"/>
-      <c r="CY16" s="55"/>
-      <c r="CZ16" s="55"/>
-      <c r="DA16" s="57"/>
-      <c r="DB16" s="59"/>
-      <c r="DC16" s="59"/>
-      <c r="DD16" s="59"/>
-      <c r="DE16" s="59"/>
-      <c r="DF16" s="54"/>
-      <c r="DG16" s="54"/>
+    <row r="16" spans="1:178" x14ac:dyDescent="0.2">
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="DA16" s="55"/>
+      <c r="DB16" s="57"/>
+      <c r="DC16" s="57"/>
+      <c r="DD16" s="57"/>
+      <c r="DE16" s="57"/>
     </row>
-    <row r="17" spans="6:111" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="56"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="59"/>
-      <c r="AU17" s="59"/>
-      <c r="AV17" s="59"/>
-      <c r="AW17" s="59"/>
-      <c r="AX17" s="59"/>
-      <c r="AY17" s="59"/>
-      <c r="AZ17" s="59"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="59"/>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
-      <c r="BF17" s="59"/>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="59"/>
-      <c r="BJ17" s="59"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="59"/>
-      <c r="BM17" s="59"/>
-      <c r="BN17" s="59"/>
-      <c r="BO17" s="59"/>
-      <c r="BP17" s="59"/>
-      <c r="BQ17" s="59"/>
-      <c r="BR17" s="59"/>
-      <c r="BS17" s="59"/>
-      <c r="BT17" s="59"/>
-      <c r="BU17" s="59"/>
-      <c r="BV17" s="59"/>
-      <c r="BW17" s="59"/>
-      <c r="BX17" s="59"/>
-      <c r="BY17" s="59"/>
-      <c r="BZ17" s="59"/>
-      <c r="CA17" s="59"/>
-      <c r="CB17" s="59"/>
-      <c r="CC17" s="59"/>
-      <c r="CD17" s="59"/>
-      <c r="CE17" s="59"/>
-      <c r="CF17" s="59"/>
-      <c r="CG17" s="59"/>
-      <c r="CH17" s="59"/>
-      <c r="CI17" s="59"/>
-      <c r="CJ17" s="59"/>
-      <c r="CK17" s="59"/>
-      <c r="CL17" s="53"/>
-      <c r="CM17" s="55"/>
-      <c r="CN17" s="55"/>
-      <c r="CO17" s="56"/>
-      <c r="CP17" s="55"/>
-      <c r="CQ17" s="55"/>
-      <c r="CR17" s="56"/>
-      <c r="CS17" s="55"/>
-      <c r="CT17" s="55"/>
-      <c r="CU17" s="56"/>
-      <c r="CV17" s="55"/>
-      <c r="CW17" s="55"/>
-      <c r="CX17" s="56"/>
-      <c r="CY17" s="55"/>
-      <c r="CZ17" s="55"/>
-      <c r="DA17" s="57"/>
-      <c r="DB17" s="59"/>
-      <c r="DC17" s="59"/>
-      <c r="DD17" s="59"/>
-      <c r="DE17" s="59"/>
-      <c r="DF17" s="59"/>
-      <c r="DG17" s="59"/>
+    <row r="17" spans="12:111" x14ac:dyDescent="0.2">
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+      <c r="AX17" s="57"/>
+      <c r="AY17" s="57"/>
+      <c r="AZ17" s="57"/>
+      <c r="BA17" s="57"/>
+      <c r="BB17" s="57"/>
+      <c r="BC17" s="57"/>
+      <c r="BD17" s="57"/>
+      <c r="BE17" s="57"/>
+      <c r="BF17" s="57"/>
+      <c r="BG17" s="57"/>
+      <c r="BH17" s="57"/>
+      <c r="BI17" s="57"/>
+      <c r="BJ17" s="57"/>
+      <c r="BK17" s="57"/>
+      <c r="BL17" s="57"/>
+      <c r="BM17" s="57"/>
+      <c r="BN17" s="57"/>
+      <c r="BO17" s="57"/>
+      <c r="BP17" s="57"/>
+      <c r="BQ17" s="57"/>
+      <c r="BR17" s="57"/>
+      <c r="BS17" s="57"/>
+      <c r="BT17" s="57"/>
+      <c r="BU17" s="57"/>
+      <c r="BV17" s="57"/>
+      <c r="BW17" s="57"/>
+      <c r="BX17" s="57"/>
+      <c r="BY17" s="57"/>
+      <c r="BZ17" s="57"/>
+      <c r="CA17" s="57"/>
+      <c r="CB17" s="57"/>
+      <c r="CC17" s="57"/>
+      <c r="CD17" s="57"/>
+      <c r="CE17" s="57"/>
+      <c r="CF17" s="57"/>
+      <c r="CG17" s="57"/>
+      <c r="CH17" s="57"/>
+      <c r="CI17" s="57"/>
+      <c r="CJ17" s="57"/>
+      <c r="CK17" s="57"/>
+      <c r="DA17" s="55"/>
+      <c r="DB17" s="57"/>
+      <c r="DC17" s="57"/>
+      <c r="DD17" s="57"/>
+      <c r="DE17" s="57"/>
+      <c r="DF17" s="57"/>
+      <c r="DG17" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
+  <conditionalFormatting sqref="CN1:CN1048576">
+    <cfRule type="expression" dxfId="33" priority="16">
+      <formula>AND(ROW($CN1)&gt;14,OR($CN1&gt;$CL1,$CN1&lt;$CM1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="17">
+      <formula>AND(ROW($CN1)&gt;14,$CN1&lt;&gt;$F1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CQ1:CQ1048576">
+    <cfRule type="expression" dxfId="31" priority="15">
+      <formula>AND(ROW($CQ1)&gt;14,$CQ1&lt;&gt;$G1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="14">
+      <formula>AND(ROW($CQ1)&gt;14,OR($CQ1&gt;$CO1,$CQ1&lt;$CP1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CT1:CT1048576">
+    <cfRule type="expression" dxfId="29" priority="13">
+      <formula>AND(ROW($CT1)&gt;14,$CT1&lt;&gt;$H1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="12">
+      <formula>AND(ROW($CT1)&gt;14,OR($CT1&gt;$CR1,$CT1&lt;$CS1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CU1:CZ1048576">
+    <cfRule type="expression" dxfId="27" priority="11">
+      <formula>AND(ROW(CU1)&gt;14,CU1&lt;&gt;I1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX1:CZ1048576">
+    <cfRule type="expression" dxfId="26" priority="9">
+      <formula>AND(ROW(CX1)&gt;14,ROUND(CX1,2)&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX1:CX1048576">
+    <cfRule type="expression" dxfId="25" priority="10">
+      <formula>AND(ROW($CX1)&gt;14,$CX1&lt;&gt;($CQ1-$CV1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY1:CY1048576">
+    <cfRule type="expression" dxfId="24" priority="7">
+      <formula>AND(ROW($CY1)&gt;14,$CY1&lt;&gt;$CT1-$CW1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ1:CZ1048576">
+    <cfRule type="expression" dxfId="23" priority="8">
+      <formula>AND(ROW($CZ1)&gt;14,$CZ1&lt;&gt;$CN1-$CL1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA1:FV1048576">
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>AND(ISNUMBER(DA1),ROW(DA1)&gt;14,ISBLANK(DA$14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="5">
+      <formula>AND(ISNUMBER(DA1),ROW(DA1)&gt;14,ISERROR(MATCH(DA$14,$O$14:$CK$14,0)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="6">
+      <formula>AND(ISNUMBER(DA1),ROW(DA1)&gt;14,NOT(ISERROR(MATCH(DA$14,$O$14:$CK$14,0))),DA1&lt;&gt;INDEX($O:$CK,ROW(DA1),MATCH(DA$14,$O$14:$CK$14,0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA14:FV14">
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>AND(ISERROR(FIND("DSD",DA$14)),ISERROR(FIND("TA",DA$14)),NOT(ISBLANK(DA$14)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>AND(NOT(ISBLANK(DA$14)),ISERROR(MATCH(DA$14,$O$14:$CK$14,0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>PEPFAR Document ItemAdded</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>10000</SequenceNumber>
-    <Url/>
-    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
-    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>PEPFAR Document ItemUpdated</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>10000</SequenceNumber>
-    <Url/>
-    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
-    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
-    <Agencies xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <_dlc_DocIdPersistId xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Fiscal_x0020_Year xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">2021</Fiscal_x0020_Year>
-    <Countries xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">Caribbean Region</Countries>
-    <Subprogram xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Program xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Reporting_x0020_Period xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">COP</Reporting_x0020_Period>
-    <File_x0020_Categories xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>PEPFARDocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PEPFAR Document" ma:contentTypeID="0x010100C70776610D81E8468831C3CAD34E845A00ED7C4DC948CC2141A23CEF84C5B6E38E" ma:contentTypeVersion="60" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="599909fc7dc0eccf639a8fcf74c529fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59addc709faa01c06eca541cfd538fbf" ns2:_="">
     <xsd:import namespace="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
@@ -4930,7 +5290,81 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>PEPFAR Document ItemAdded</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>10000</SequenceNumber>
+    <Url/>
+    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
+    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>PEPFAR Document ItemUpdated</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>10000</SequenceNumber>
+    <Url/>
+    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
+    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
+    <Agencies xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+    <_dlc_DocIdPersistId xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+    <Fiscal_x0020_Year xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">2021</Fiscal_x0020_Year>
+    <Countries xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">Caribbean Region</Countries>
+    <Subprogram xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+    <Program xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+    <Reporting_x0020_Period xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">COP</Reporting_x0020_Period>
+    <File_x0020_Categories xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>PEPFARDocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB57BDE-CEB8-4F82-AAE6-4B3954CEF3E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CAE71F-031E-4455-8ADE-95494300E5A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -4938,7 +5372,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A1C95AA-C922-476F-B86B-6DD3A6226761}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -4957,28 +5391,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1FD594-74FA-451F-B6B6-0632655A3079}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB57BDE-CEB8-4F82-AAE6-4B3954CEF3E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/datapackr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D012557-F94A-E547-819C-6BE2FFE11F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B65F4F-6808-BE40-8068-62918888466D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PSNUxIM!$A$14:$DG$15</definedName>
-    <definedName name="Data_RowCount">COUNTA(PSNUxIM!$A:$A)-COUNTA(PSNUxIM!$A$1:$A$14)</definedName>
-    <definedName name="IMs_Original_Count">Totals_Updated_StartCol-IMs_Original_StartCol</definedName>
-    <definedName name="IMs_Original_Data">OFFSET(PSNUxIM!$A$15,0,IMs_Original_StartCol-1,Data_RowCount,IMs_Original_Count)</definedName>
-    <definedName name="IMs_Original_Headers">INDEX(PSNUxIM!$14:$14,,IMs_Original_StartCol):INDEX(PSNUxIM!$14:$14,,Totals_Updated_StartCol-1)</definedName>
-    <definedName name="IMs_Original_StartCol">15</definedName>
-    <definedName name="IMs_Updated_Count">IMs_Updated_EndCol-IMs_Updated_StartCol+1</definedName>
-    <definedName name="IMs_Updated_Data">OFFSET(PSNUxIM!$A$15,0,IMs_Updated_StartCol-1,Data_RowCount,IMs_Updated_Count)</definedName>
-    <definedName name="IMs_Updated_EndCol">COUNTA(PSNUxIM!$14:$14)</definedName>
-    <definedName name="IMs_Updated_Headers">INDEX(PSNUxIM!$14:$14,,IMs_Updated_StartCol):INDEX(PSNUxIM!$14:$14,,IMs_Updated_EndCol)</definedName>
-    <definedName name="IMs_Updated_New_Count">IMs_Updated_Count-IMs_Original_Count</definedName>
-    <definedName name="IMs_Updated_StartCol">Totals_Updated_StartCol+15</definedName>
-    <definedName name="Totals_Updated_StartCol">MATCH("Updated Targets",PSNUxIM!$1:$1,0)</definedName>
+    <definedName name="MIN_DSD">MAX(IF(ISNUMBER(FIND("DSD",PSNUxIM!$DA$14:$FV$14)),PSNUxIM!$DA1:$FV1))</definedName>
+    <definedName name="MIN_TA">MAX(IF(ISNUMBER(FIND("TA",PSNUxIM!$DA$14:$FV$14)),PSNUxIM!$DA1:$FV1))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,517 +544,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1580,7 +1082,7 @@
   <dimension ref="A1:FV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="CL15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight"/>
@@ -4741,16 +4243,16 @@
         <f>$CV15</f>
         <v>0</v>
       </c>
-      <c r="CP15" s="52">
-        <f>_xlfn.MAXIFS($DA15:$FV15,$DA$14:$FV$14,"*DSD*")</f>
+      <c r="CP15" s="52" cm="1">
+        <f t="array" ref="CP15">MIN_DSD</f>
         <v>0</v>
       </c>
       <c r="CR15" s="54">
         <f>$CW15</f>
         <v>0</v>
       </c>
-      <c r="CS15" s="52">
-        <f>_xlfn.MAXIFS($DA15:$FV15,$DA$14:$FV$14,"*TA*")</f>
+      <c r="CS15" s="52" cm="1">
+        <f t="array" ref="CS15">MIN_TA</f>
         <v>0</v>
       </c>
       <c r="CU15" s="54">
@@ -4888,71 +4390,71 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="CN1:CN1048576">
-    <cfRule type="expression" dxfId="33" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>AND(ROW($CN1)&gt;14,OR($CN1&gt;$CL1,$CN1&lt;$CM1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>AND(ROW($CN1)&gt;14,$CN1&lt;&gt;$F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ1:CQ1048576">
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND(ROW($CQ1)&gt;14,$CQ1&lt;&gt;$G1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>AND(ROW($CQ1)&gt;14,OR($CQ1&gt;$CO1,$CQ1&lt;$CP1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT1:CT1048576">
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>AND(ROW($CT1)&gt;14,$CT1&lt;&gt;$H1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(ROW($CT1)&gt;14,OR($CT1&gt;$CR1,$CT1&lt;$CS1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU1:CZ1048576">
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>AND(ROW(CU1)&gt;14,CU1&lt;&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX1:CZ1048576">
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND(ROW(CX1)&gt;14,ROUND(CX1,2)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX1:CX1048576">
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>AND(ROW($CX1)&gt;14,$CX1&lt;&gt;($CQ1-$CV1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY1:CY1048576">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(ROW($CY1)&gt;14,$CY1&lt;&gt;$CT1-$CW1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ1:CZ1048576">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(ROW($CZ1)&gt;14,$CZ1&lt;&gt;$CN1-$CL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA1:FV1048576">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(ISNUMBER(DA1),ROW(DA1)&gt;14,ISBLANK(DA$14))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(ISNUMBER(DA1),ROW(DA1)&gt;14,ISERROR(MATCH(DA$14,$O$14:$CK$14,0)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(ISNUMBER(DA1),ROW(DA1)&gt;14,NOT(ISERROR(MATCH(DA$14,$O$14:$CK$14,0))),DA1&lt;&gt;INDEX($O:$CK,ROW(DA1),MATCH(DA$14,$O$14:$CK$14,0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA14:FV14">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(ISERROR(FIND("DSD",DA$14)),ISERROR(FIND("TA",DA$14)),NOT(ISBLANK(DA$14)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(NOT(ISBLANK(DA$14)),ISERROR(MATCH(DA$14,$O$14:$CK$14,0)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/datapackr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B65F4F-6808-BE40-8068-62918888466D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AF55AB-D8D7-CB4B-819E-C603383343D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PSNUxIM!$A$14:$DG$15</definedName>
-    <definedName name="MIN_DSD">MAX(IF(ISNUMBER(FIND("DSD",PSNUxIM!$DA$14:$FV$14)),PSNUxIM!$DA1:$FV1))</definedName>
-    <definedName name="MIN_TA">MAX(IF(ISNUMBER(FIND("TA",PSNUxIM!$DA$14:$FV$14)),PSNUxIM!$DA1:$FV1))</definedName>
+    <definedName name="MIN_DSD">ROUND(MAX(IF(ISNUMBER(FIND("DSD",PSNUxIM!$DA$14:$FV$14)),PSNUxIM!$DA1:$FV1)),1)</definedName>
+    <definedName name="MIN_TA">ROUND(MAX(IF(ISNUMBER(FIND("TA",PSNUxIM!$DA$14:$FV$14)),PSNUxIM!$DA1:$FV1)),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:FV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="CL15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight"/>
@@ -4232,11 +4232,11 @@
       <c r="CJ15" s="50"/>
       <c r="CK15" s="50"/>
       <c r="CL15" s="51">
-        <f>SUM($CQ15,$CT15)</f>
+        <f>ROUND(SUM($CQ15,$CT15),1)</f>
         <v>0</v>
       </c>
       <c r="CM15" s="52">
-        <f>MAX($CQ15,$CT15)</f>
+        <f>ROUND(MAX($CQ15,$CT15),1)</f>
         <v>0</v>
       </c>
       <c r="CO15" s="54">
@@ -4260,11 +4260,11 @@
         <v>0</v>
       </c>
       <c r="CV15" s="52">
-        <f>SUMIFS($DA15:$FV15,$DA$14:$FV$14,"*DSD*")</f>
+        <f>ROUND(SUMIFS($DA15:$FV15,$DA$14:$FV$14,"*DSD*"),1)</f>
         <v>0</v>
       </c>
       <c r="CW15" s="52">
-        <f>SUMIFS($DA15:$FV15,$DA$14:$FV$14,"*TA*")</f>
+        <f>ROUND(SUMIFS($DA15:$FV15,$DA$14:$FV$14,"*TA*"),1)</f>
         <v>0</v>
       </c>
       <c r="CX15" s="54">
@@ -4464,6 +4464,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>PEPFAR Document ItemAdded</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>10000</SequenceNumber>
+    <Url/>
+    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
+    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>PEPFAR Document ItemUpdated</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>10000</SequenceNumber>
+    <Url/>
+    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
+    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PEPFAR Document" ma:contentTypeID="0x010100C70776610D81E8468831C3CAD34E845A00ED7C4DC948CC2141A23CEF84C5B6E38E" ma:contentTypeVersion="60" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="599909fc7dc0eccf639a8fcf74c529fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59addc709faa01c06eca541cfd538fbf" ns2:_="">
     <xsd:import namespace="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
@@ -4792,35 +4820,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>PEPFAR Document ItemAdded</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>10000</SequenceNumber>
-    <Url/>
-    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
-    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>PEPFAR Document ItemUpdated</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>10000</SequenceNumber>
-    <Url/>
-    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
-    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>PEPFARDocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxKeywordTaxHTField xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">
@@ -4839,16 +4848,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>PEPFARDocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CAE71F-031E-4455-8ADE-95494300E5A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB57BDE-CEB8-4F82-AAE6-4B3954CEF3E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4866,15 +4874,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CAE71F-031E-4455-8ADE-95494300E5A4}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1FD594-74FA-451F-B6B6-0632655A3079}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A1C95AA-C922-476F-B86B-6DD3A6226761}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -4891,12 +4899,4 @@
     <ds:schemaRef ds:uri="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1FD594-74FA-451F-B6B6-0632655A3079}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP20_OPU_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/datapackr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AF55AB-D8D7-CB4B-819E-C603383343D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D0E4A2-0A7C-C549-BB8D-929E1E7EA5F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="50">
   <si>
     <t>PEPFAR</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>past</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1081,11 +1084,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:FV17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="CK15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CY5" sqref="CY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1873,7 +1876,7 @@
       <c r="FU4" s="18"/>
       <c r="FV4" s="18"/>
     </row>
-    <row r="5" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="CN5" s="20" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="CO5" s="19" t="s">
         <v>7</v>
@@ -2009,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="CQ5" s="20" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="CR5" s="19" t="s">
         <v>7</v>
@@ -2018,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="CT5" s="20" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="CU5" s="19" t="s">
         <v>7</v>
@@ -2030,13 +2033,13 @@
         <v>7</v>
       </c>
       <c r="CX5" s="19" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="CY5" s="20" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="CZ5" s="20" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="DA5" s="19" t="s">
         <v>47</v>
@@ -2115,7 +2118,7 @@
       <c r="FU5" s="21"/>
       <c r="FV5" s="21"/>
     </row>
-    <row r="6" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2150,16 +2153,16 @@
         <v>46</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -2236,40 +2239,40 @@
       <c r="CJ6" s="21"/>
       <c r="CK6" s="21"/>
       <c r="CL6" s="40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CM6" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CN6" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CO6" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CP6" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CQ6" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CR6" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CS6" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CT6" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CU6" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CV6" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CW6" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CX6" s="19" t="s">
         <v>48</v>
@@ -2357,7 +2360,7 @@
       <c r="FU6" s="21"/>
       <c r="FV6" s="21"/>
     </row>
-    <row r="7" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2599,7 +2602,7 @@
       <c r="FU7" s="21"/>
       <c r="FV7" s="21"/>
     </row>
-    <row r="8" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -2841,7 +2844,7 @@
       <c r="FU8" s="21"/>
       <c r="FV8" s="21"/>
     </row>
-    <row r="9" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3083,7 +3086,7 @@
       <c r="FU9" s="21"/>
       <c r="FV9" s="21"/>
     </row>
-    <row r="10" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -3325,7 +3328,7 @@
       <c r="FU10" s="21"/>
       <c r="FV10" s="21"/>
     </row>
-    <row r="11" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -3567,7 +3570,7 @@
       <c r="FU11" s="21"/>
       <c r="FV11" s="21"/>
     </row>
-    <row r="12" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3809,7 +3812,7 @@
       <c r="FU12" s="21"/>
       <c r="FV12" s="21"/>
     </row>
-    <row r="13" spans="1:178" s="42" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:178" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -4464,34 +4467,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>PEPFAR Document ItemAdded</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>10000</SequenceNumber>
-    <Url/>
-    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
-    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>PEPFAR Document ItemUpdated</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>10000</SequenceNumber>
-    <Url/>
-    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
-    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
+    <Agencies xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+    <_dlc_DocIdPersistId xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+    <Fiscal_x0020_Year xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">2021</Fiscal_x0020_Year>
+    <Countries xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">Caribbean Region</Countries>
+    <Subprogram xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+    <Program xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+    <Reporting_x0020_Period xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">COP</Reporting_x0020_Period>
+    <File_x0020_Categories xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>PEPFARDocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PEPFAR Document" ma:contentTypeID="0x010100C70776610D81E8468831C3CAD34E845A00ED7C4DC948CC2141A23CEF84C5B6E38E" ma:contentTypeVersion="60" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="599909fc7dc0eccf639a8fcf74c529fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59addc709faa01c06eca541cfd538fbf" ns2:_="">
     <xsd:import namespace="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
@@ -4820,43 +4823,62 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>PEPFARDocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
-    <Agencies xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <_dlc_DocIdPersistId xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Fiscal_x0020_Year xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">2021</Fiscal_x0020_Year>
-    <Countries xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">Caribbean Region</Countries>
-    <Subprogram xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Program xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Reporting_x0020_Period xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">COP</Reporting_x0020_Period>
-    <File_x0020_Categories xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>PEPFAR Document ItemAdded</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>10000</SequenceNumber>
+    <Url/>
+    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
+    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>PEPFAR Document ItemUpdated</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>10000</SequenceNumber>
+    <Url/>
+    <Assembly>PEPFAR.Metadata, Version=1.0.0.0, Culture=neutral, PublicKeyToken=bfbced1c4babb2a0</Assembly>
+    <Class>PEPFAR.Metadata.FolderEventReceiver.FolderEventReceiver</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CAE71F-031E-4455-8ADE-95494300E5A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A1C95AA-C922-476F-B86B-6DD3A6226761}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b306ee79-2f51-4bda-a734-8653703d17c0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="3d326652-0b14-4e9a-87c1-dce06bb2442c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1FD594-74FA-451F-B6B6-0632655A3079}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB57BDE-CEB8-4F82-AAE6-4B3954CEF3E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4874,29 +4896,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1FD594-74FA-451F-B6B6-0632655A3079}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CAE71F-031E-4455-8ADE-95494300E5A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A1C95AA-C922-476F-B86B-6DD3A6226761}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b306ee79-2f51-4bda-a734-8653703d17c0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="3d326652-0b14-4e9a-87c1-dce06bb2442c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>